--- a/biology/Zoologie/Chouette_à_lignes_noires/Chouette_à_lignes_noires.xlsx
+++ b/biology/Zoologie/Chouette_à_lignes_noires/Chouette_à_lignes_noires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A0_lignes_noires</t>
+          <t>Chouette_à_lignes_noires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Strix nigrolineata
 La Chouette à lignes noires (Strix nigrolineata) est une espèce d'oiseaux de la famille des Strigidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A0_lignes_noires</t>
+          <t>Chouette_à_lignes_noires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 38 cm de longueur. Il a un bec jaune, un plumage brun noirâtre sur le dessus et blanc finement barré sur le dessous.
-Il émet un hululement grave et un miaulement nasillard[1].
+Il émet un hululement grave et un miaulement nasillard.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A0_lignes_noires</t>
+          <t>Chouette_à_lignes_noires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend en Amérique latine, de l'est du Mexique au nord-ouest du Venezuela et à travers le Tumbes-Chocó-Magdalena.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A0_lignes_noires</t>
+          <t>Chouette_à_lignes_noires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les forêts mais chasse en lisière.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A0_lignes_noires</t>
+          <t>Chouette_à_lignes_noires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme des gros insectes et de petits mammifères.
 </t>
